--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2188827.883389203</v>
+        <v>2188302.70102017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -670,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>203.044123480044</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>221.2406560936382</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.291583304551381</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>170.7548091264023</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>358.6997160404779</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>243.9210525060464</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1059,22 +1059,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>158.2688632926608</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>34.06158462964672</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1135,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>323.2533908558686</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>194.0738147726065</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1344,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>169.9259850434489</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.133574646794441</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.436997393288</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>7.264602967362131</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>102.6974459740356</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>20.56754178381338</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>86.20228614855837</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2812,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.412621479132298</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225714</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3031,25 +3031,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3088,16 +3088,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.139541480022559</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>169.7914649777113</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.6544692828921</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>125.6544692828921</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4033,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>50.05924486566766</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>82.14201637551359</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.9336779278854</v>
+        <v>547.9560900011804</v>
       </c>
       <c r="C2" t="n">
-        <v>523.8316091517128</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1408.436482041988</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.436482041988</v>
+        <v>994.4184900748787</v>
       </c>
       <c r="W2" t="n">
-        <v>1407.621431493425</v>
+        <v>993.603439526316</v>
       </c>
       <c r="X2" t="n">
-        <v>988.4789680727357</v>
+        <v>574.4609761056267</v>
       </c>
       <c r="Y2" t="n">
-        <v>580.1928443723891</v>
+        <v>570.2152564456842</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1294.102365436318</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>859.7685167902448</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="C4" t="n">
-        <v>687.2068052734697</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4521,19 +4521,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1524.703824902233</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1237.748316772664</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>1237.748316772664</v>
       </c>
       <c r="X4" t="n">
-        <v>859.7685167902448</v>
+        <v>992.3565621060761</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.7685167902448</v>
+        <v>992.3565621060761</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.4627999561583</v>
+        <v>904.459171253175</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3607311799856</v>
+        <v>466.3166984365983</v>
       </c>
       <c r="D5" t="n">
-        <v>912.4913503948342</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>478.7166055531294</v>
+        <v>74.2594121398653</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
@@ -4576,43 +4576,43 @@
         <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087175</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>1351.019759470482</v>
+        <v>557.7649106726453</v>
       </c>
       <c r="O5" t="n">
-        <v>1351.019759470482</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1975.120543515262</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473856</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657693</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657693</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.582554136434</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.965604070261</v>
+        <v>2159.002379407681</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.150553521698</v>
+        <v>1754.146924818715</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.048494141413</v>
+        <v>1739.044865438429</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.762370441066</v>
+        <v>1330.758741738083</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326466</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993473</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>401.054384716147</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>431.6596472970913</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970913</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970913</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970913</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>865.0621401077492</v>
+        <v>593.0357356940394</v>
       </c>
       <c r="C7" t="n">
-        <v>692.5004285909741</v>
+        <v>420.4740241772644</v>
       </c>
       <c r="D7" t="n">
-        <v>532.6328899115188</v>
+        <v>254.596031378787</v>
       </c>
       <c r="E7" t="n">
-        <v>532.6328899115188</v>
+        <v>84.8380276295243</v>
       </c>
       <c r="F7" t="n">
-        <v>355.9258358732749</v>
+        <v>84.8380276295243</v>
       </c>
       <c r="G7" t="n">
-        <v>190.3345608991026</v>
+        <v>84.8380276295243</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947713</v>
+        <v>84.8380276295243</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947713</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606127</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>743.4007229285737</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1202.884590109487</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1645.143393267131</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2064.812642492913</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2412.319536463255</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.08069305568</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308785</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179216</v>
+        <v>1529.692184179214</v>
       </c>
       <c r="W7" t="n">
-        <v>1529.692184179216</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>1284.300429512628</v>
+        <v>1012.274025098918</v>
       </c>
       <c r="Y7" t="n">
-        <v>1056.880758826736</v>
+        <v>784.8543544130266</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.335719634342</v>
+        <v>1153.221971308028</v>
       </c>
       <c r="C8" t="n">
-        <v>1233.817143012253</v>
+        <v>715.079498491451</v>
       </c>
       <c r="D8" t="n">
-        <v>797.9073581866973</v>
+        <v>683.2101177062996</v>
       </c>
       <c r="E8" t="n">
-        <v>768.1730173853965</v>
+        <v>249.4353728645947</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4813,43 +4813,43 @@
         <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1179.226652594814</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1840.066707136593</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678371</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>2410.023473199882</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1990.881009779192</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.63529011925</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4992,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5050,43 +5050,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5260,19 +5260,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5284,10 +5284,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423627</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,10 +5354,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
         <v>1107.588885023173</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5463,25 +5463,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1134.430677610026</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2291.478512820577</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>275.1900980402672</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>109.5988230660949</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2455.944287558408</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2177.511286811513</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1890.555778681944</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.529374268236</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1373.137619601648</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5992,40 +5992,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>4115.578073952529</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
@@ -6034,7 +6034,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2517.485965445823</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.052964698928</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6232,10 +6232,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>703.2638400820882</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>537.3858472836109</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009659</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771616</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.807784200425</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.677629643641</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707797</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>449.602989562749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.1208027766308</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987182</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423629</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993935</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827331</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,19 +6943,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4482.954513162269</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6982,7 +6982,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>864.7097725347917</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>692.1480610180166</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>526.2700682195393</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>356.5120644702766</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2366.754729896431</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.321729149536</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1801.366221019967</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1529.339816606258</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1283.948061939671</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.528391253779</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7165,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7180,46 +7180,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7323,7 +7323,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7356,19 +7356,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2411.337553830592</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2132.904553083697</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.949044954127</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
         <v>1845.949044954127</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,46 +7417,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2411.337553830592</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2132.904553083697</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.949044954127</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,28 +7636,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1035.728611060351</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>863.1668995435758</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>697.2889067450985</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E46" t="n">
-        <v>527.5309029958357</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F46" t="n">
-        <v>350.823848957592</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G46" t="n">
-        <v>185.2325739834196</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>185.2325739834196</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1454.96690046523</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1227.547229779338</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>320.0858880793244</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8224,22 +8224,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>243.6685872558664</v>
+        <v>72.80589558611149</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741845</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684641</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238402</v>
+        <v>22.94960388475829</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,22 +8461,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>199.8177226071398</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9652,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>662.0994432140324</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>874.0742053677695</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9880,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463143</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10427,13 +10427,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>143.3273746213856</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>465.5893289127825</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>469.2069973599082</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.63380825304894</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>84.63380825304885</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>73.629186979618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631333357557821</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>475899.301963259</v>
+        <v>475899.3019632591</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502386.7399644183</v>
+        <v>502386.7399644182</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>502386.7399644182</v>
+        <v>502386.7399644183</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>502386.7399644183</v>
+        <v>502386.7399644182</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>522743.6368931482</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931483</v>
+        <v>522743.6368931485</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="E2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="F2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="K2" t="n">
         <v>513686.1445339185</v>
@@ -26349,13 +26349,13 @@
         <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="O2" t="n">
         <v>513686.1445339185</v>
       </c>
-      <c r="O2" t="n">
-        <v>513686.1445339186</v>
-      </c>
       <c r="P2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501632</v>
+        <v>66587.76789501625</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998261</v>
+        <v>11527.59554998269</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>4.802132025361061e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.8546387727</v>
+        <v>53045.85463877258</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622185</v>
+        <v>9392.301726622249</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.119437218</v>
+        <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
         <v>179718.6327917065</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.5352664431</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
         <v>94878.44464875289</v>
@@ -26472,46 +26472,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109034.428658998</v>
+        <v>109034.4286589979</v>
       </c>
       <c r="C6" t="n">
-        <v>204481.0223984229</v>
+        <v>204481.0223984231</v>
       </c>
       <c r="D6" t="n">
-        <v>263113.9815149648</v>
+        <v>263113.981514965</v>
       </c>
       <c r="E6" t="n">
-        <v>158734.3520583234</v>
+        <v>158711.1277189406</v>
       </c>
       <c r="F6" t="n">
-        <v>341089.461279373</v>
+        <v>341066.2369399904</v>
       </c>
       <c r="G6" t="n">
-        <v>341089.4612793732</v>
+        <v>341066.2369399904</v>
       </c>
       <c r="H6" t="n">
-        <v>341089.4612793732</v>
+        <v>341066.2369399904</v>
       </c>
       <c r="I6" t="n">
-        <v>341089.4612793732</v>
+        <v>341066.2369399904</v>
       </c>
       <c r="J6" t="n">
-        <v>230074.995934383</v>
+        <v>230051.7715950003</v>
       </c>
       <c r="K6" t="n">
-        <v>288043.6066406004</v>
+        <v>288020.3823012178</v>
       </c>
       <c r="L6" t="n">
-        <v>331697.1595527509</v>
+        <v>331673.9352133682</v>
       </c>
       <c r="M6" t="n">
-        <v>188889.2903413854</v>
+        <v>188866.0660020029</v>
       </c>
       <c r="N6" t="n">
-        <v>341089.4612793732</v>
+        <v>341066.2369399904</v>
       </c>
       <c r="O6" t="n">
-        <v>341089.4612793732</v>
+        <v>341066.2369399904</v>
       </c>
       <c r="P6" t="n">
-        <v>341089.461279373</v>
+        <v>341066.2369399904</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26816,10 +26816,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
         <v>1278.260503384745</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939288</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939288</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939288</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.58595617610925</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>137.7501244718736</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>162.9276295659411</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>104.8938616130235</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.85097093682202</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>12.70902715010683</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.950349577831702</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>53.71176510342469</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,70 +27855,70 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>110.5076572325423</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>229.5149405222778</v>
+      </c>
+      <c r="G8" t="n">
+        <v>397.3838530629687</v>
+      </c>
+      <c r="H8" t="n">
+        <v>286.2388530112159</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4126214791313976</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>358.9907805655117</v>
-      </c>
-      <c r="W8" t="n">
-        <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.028261402505088e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>320.0858880793244</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>243.6685872558664</v>
+        <v>72.80589558611149</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741845</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684641</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238402</v>
+        <v>22.94960388475829</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>199.8177226071398</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36372,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>662.0994432140324</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>874.0742053677695</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36600,13 +36600,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36995,7 +36995,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463143</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,10 +37086,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37147,13 +37147,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>143.3273746213856</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37311,22 +37311,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>465.5893289127825</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37548,16 +37548,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>469.2069973599082</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
